--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737350.406010746</v>
+        <v>2735462.824494343</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>314.8870828777631</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>52.82290122762556</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>145.0955337074624</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>252.4899179565723</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>318.3478051693983</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>39.82016024261407</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>1.225998096217157</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>43.80431246487684</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.87604574171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>118.4898845065117</v>
+        <v>16.3964637729637</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>50.45300511654388</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>118.6381055895285</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2053,7 +2053,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.153727875004</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>238.2336684417112</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273956</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>59.32456467617088</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943743</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571505</v>
+        <v>55.21598883571508</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523585</v>
+        <v>54.76109577523589</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550463</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>59.21181988311386</v>
       </c>
       <c r="W31" t="n">
-        <v>146.4246524402895</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.452763222453</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>764.7444956504012</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>764.7444956504012</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>764.7444956504012</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>378.9562430521569</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>372.0107423029535</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4340,16 +4340,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500978</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157407</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887293</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626213</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>764.7444956504012</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>552.1509199010035</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>552.1509199010035</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>863.1126181035243</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>863.1126181035243</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>863.1126181035243</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>856.1671173543208</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,40 +4653,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349974</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>338.4002221349974</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>338.4002221349974</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>191.5102746370871</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>191.5102746370871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4768,7 +4768,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.839423407099</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.070768136985</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870653</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286127</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305954</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870653</v>
+        <v>260.6691235773515</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,10 +5297,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,19 +5352,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
         <v>1528.62340110598</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383383</v>
+        <v>528.1058742183019</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1447.95363912705</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1447.95363912705</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1447.95363912705</v>
       </c>
       <c r="U16" t="n">
-        <v>1155.294385054955</v>
+        <v>1447.95363912705</v>
       </c>
       <c r="V16" t="n">
-        <v>900.6098968490684</v>
+        <v>1447.95363912705</v>
       </c>
       <c r="W16" t="n">
-        <v>611.1927268121079</v>
+        <v>1158.536469090089</v>
       </c>
       <c r="X16" t="n">
-        <v>611.1927268121079</v>
+        <v>930.5469181920718</v>
       </c>
       <c r="Y16" t="n">
-        <v>390.4001476685778</v>
+        <v>709.7543390485416</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,13 +5774,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028591</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028591</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028591</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028586</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -6011,13 +6011,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,16 +6175,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583031</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028587</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,10 +6215,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>726.1584037733162</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363556</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
     </row>
     <row r="29">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>525.285045376181</v>
+        <v>750.8748194215261</v>
       </c>
       <c r="C31" t="n">
-        <v>525.285045376181</v>
+        <v>637.6995017749898</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452159</v>
+        <v>543.3437276440247</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441935</v>
+        <v>451.1914993430023</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276538</v>
+        <v>360.0624171264626</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1275.450437588145</v>
       </c>
       <c r="W31" t="n">
-        <v>988.4330444038561</v>
+        <v>1041.794132832555</v>
       </c>
       <c r="X31" t="n">
-        <v>816.2043587872095</v>
+        <v>1041.794132832555</v>
       </c>
       <c r="Y31" t="n">
-        <v>651.17264492505</v>
+        <v>876.7624189703952</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,25 +7002,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,25 +7239,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7309,34 +7309,34 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7655,19 +7655,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7834,22 +7834,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503174</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>48.75693659211615</v>
+        <v>150.8503573256641</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>59.51134728724892</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>167.5992468090488</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.3938331833852</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338513</v>
+        <v>48.00368395686618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338513</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>192.8130786476571</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.7225668121572</v>
       </c>
       <c r="W31" t="n">
-        <v>84.89508926774461</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179055</v>
+        <v>610233.2060179041</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="N2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="P2" t="n">
         <v>615781.3273982125</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.6053028455</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.6053028455</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007554</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007546</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.73165600754</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007461</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020399</v>
+        <v>26081.35417020397</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732801</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,16 +26497,16 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.678595662</v>
+        <v>-204962.6785956623</v>
       </c>
       <c r="C6" t="n">
+        <v>385005.2006188827</v>
+      </c>
+      <c r="D6" t="n">
         <v>385005.2006188824</v>
       </c>
-      <c r="D6" t="n">
-        <v>385005.2006188822</v>
-      </c>
       <c r="E6" t="n">
-        <v>-38520.50447505721</v>
+        <v>-38617.96360102943</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.5320018387</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.5320018387</v>
+        <v>486542.0728758665</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.5320018387</v>
+        <v>486542.0728758665</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018386</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.3128092457</v>
+        <v>310118.8536832737</v>
       </c>
       <c r="K6" t="n">
-        <v>443361.0380146331</v>
+        <v>443342.5442766975</v>
       </c>
       <c r="L6" t="n">
-        <v>477387.7958799921</v>
+        <v>477387.7958799919</v>
       </c>
       <c r="M6" t="n">
         <v>352929.6874470219</v>
@@ -26561,7 +26561,7 @@
         <v>487730.7026808591</v>
       </c>
       <c r="P6" t="n">
-        <v>443568.0973780135</v>
+        <v>443568.0973780137</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855687</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108369</v>
+        <v>12.92863350108375</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855687</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855687</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>98.89708714303191</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>333.415037428428</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>1.569658272695477</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>34.0330803800187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>95.43636485139666</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>329.910940435855</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>154.944890745578</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,7 +27901,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>130.6114003440947</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.465120438763671e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382566</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
@@ -36054,10 +36054,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187475</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412246</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -36996,19 +36996,19 @@
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043169</v>
+        <v>94.42895660043166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
